--- a/DataTable/事件表.xlsx
+++ b/DataTable/事件表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubCangKu\GQLX\DataTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B12F9D-0201-4D86-843A-1BCA12548054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -188,14 +194,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,156 +219,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,13 +240,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,13 +258,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,194 +274,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -621,251 +298,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -943,67 +378,23 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFC1C1"/>
-      <color rgb="00ECCBFF"/>
+      <color rgb="FFFFC1C1"/>
+      <color rgb="FFECCBFF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1261,54 +652,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.86111111111111" style="3" customWidth="1"/>
-    <col min="2" max="5" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.8240740740741" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.7037037037037" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="17" max="17" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="18" max="18" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="19" max="19" width="11.9444444444444" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="3" customWidth="1"/>
+    <col min="2" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12" style="4" customWidth="1"/>
+    <col min="13" max="13" width="15.75" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12" style="3" customWidth="1"/>
+    <col min="17" max="17" width="12" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12" style="4" customWidth="1"/>
     <col min="20" max="20" width="16.5" style="3" customWidth="1"/>
-    <col min="21" max="21" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="23" max="23" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="24" max="24" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="25" max="25" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="26" max="26" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="27" max="27" width="16.8240740740741" style="3" customWidth="1"/>
-    <col min="28" max="28" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="29" max="29" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="30" max="30" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="31" max="31" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="32" max="32" width="11.9444444444444" style="3" customWidth="1"/>
-    <col min="33" max="33" width="11.9444444444444" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="11" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12" style="3" customWidth="1"/>
+    <col min="22" max="22" width="12" style="4" customWidth="1"/>
+    <col min="23" max="23" width="12" style="3" customWidth="1"/>
+    <col min="24" max="24" width="12" style="4" customWidth="1"/>
+    <col min="25" max="25" width="12" style="3" customWidth="1"/>
+    <col min="26" max="26" width="12" style="4" customWidth="1"/>
+    <col min="27" max="27" width="16.875" style="3" customWidth="1"/>
+    <col min="28" max="28" width="12" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12" style="4" customWidth="1"/>
+    <col min="30" max="30" width="12" style="3" customWidth="1"/>
+    <col min="31" max="31" width="12" style="4" customWidth="1"/>
+    <col min="32" max="32" width="12" style="3" customWidth="1"/>
+    <col min="33" max="33" width="12" style="4" customWidth="1"/>
+    <col min="34" max="34" width="11" style="3" customWidth="1"/>
+    <col min="35" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:33">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,12 +801,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1515,7 +907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="16.8" spans="1:33">
+    <row r="4" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1616,7 +1008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1705,7 +1097,7 @@
       <c r="AF5" s="23"/>
       <c r="AG5" s="22"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
@@ -1790,7 +1182,7 @@
       <c r="AF6" s="23"/>
       <c r="AG6" s="22"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1825,7 +1217,7 @@
       <c r="AF7" s="23"/>
       <c r="AG7" s="22"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1860,7 +1252,7 @@
       <c r="AF8" s="23"/>
       <c r="AG8" s="22"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1895,7 +1287,7 @@
       <c r="AF9" s="23"/>
       <c r="AG9" s="22"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1930,7 +1322,7 @@
       <c r="AF10" s="23"/>
       <c r="AG10" s="22"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1965,7 +1357,7 @@
       <c r="AF11" s="23"/>
       <c r="AG11" s="22"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2000,7 +1392,7 @@
       <c r="AF12" s="23"/>
       <c r="AG12" s="22"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2035,7 +1427,7 @@
       <c r="AF13" s="23"/>
       <c r="AG13" s="22"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2070,7 +1462,7 @@
       <c r="AF14" s="23"/>
       <c r="AG14" s="22"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2105,7 +1497,7 @@
       <c r="AF15" s="23"/>
       <c r="AG15" s="22"/>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2141,8 +1533,8 @@
       <c r="AG16" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataTable/事件表.xlsx
+++ b/DataTable/事件表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubCangKu\GQLX\DataTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B12F9D-0201-4D86-843A-1BCA12548054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +30,8 @@
           <t>1:主线事件（只可完成一次）
 2：剧情事件（可反复使用）
 3：后续剧情
-（初始时不可刷出）</t>
+（初始时不可刷出）
+99、神庙事件</t>
         </r>
       </text>
     </comment>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
   <si>
     <t>ALL</t>
   </si>
@@ -189,13 +184,43 @@
   </si>
   <si>
     <t>杠杆断了</t>
+  </si>
+  <si>
+    <t>SM#0901</t>
+  </si>
+  <si>
+    <t>废弃的研究所</t>
+  </si>
+  <si>
+    <t>这是一座破败的研究所，室内的照明设施早已损坏，只有零星闪烁的按钮和一些电线断口的火花提供了少许微弱的光源，映照出空气中肆意飞舞的灰尘。你朝着光源最亮处走去，来到了一个控制台前。你站上操作台，面前是两个按钮</t>
+  </si>
+  <si>
+    <t>随着电流蔓延过全身，你觉得自己的的身体更加强壮了</t>
+  </si>
+  <si>
+    <t>随着电流蔓延过全身，你觉得全身都快被这股力量撕裂了</t>
+  </si>
+  <si>
+    <t>随着电流蔓延过全身，你觉得自己的状态变得更好了</t>
+  </si>
+  <si>
+    <t>随着电流蔓延过全身，你觉得自己大脑中的每个神经元都变得前所未有的活跃了</t>
+  </si>
+  <si>
+    <t>随着电流蔓延过全身，你感到了前所未有的畅快</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,19 +244,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,13 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,13 +420,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,8 +454,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -298,13 +664,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,17 +949,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -365,36 +964,104 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFC1C1"/>
-      <color rgb="FFECCBFF"/>
+      <color rgb="00FFC1C1"/>
+      <color rgb="00ECCBFF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -652,23 +1319,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.87962962962963" style="3" customWidth="1"/>
     <col min="2" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.8796296296296" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
     <col min="8" max="8" width="12" style="4" customWidth="1"/>
     <col min="9" max="9" width="12" style="3" customWidth="1"/>
@@ -689,7 +1356,7 @@
     <col min="24" max="24" width="12" style="4" customWidth="1"/>
     <col min="25" max="25" width="12" style="3" customWidth="1"/>
     <col min="26" max="26" width="12" style="4" customWidth="1"/>
-    <col min="27" max="27" width="16.875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="16.8796296296296" style="3" customWidth="1"/>
     <col min="28" max="28" width="12" style="3" customWidth="1"/>
     <col min="29" max="29" width="12" style="4" customWidth="1"/>
     <col min="30" max="30" width="12" style="3" customWidth="1"/>
@@ -700,7 +1367,7 @@
     <col min="35" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,12 +1468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" spans="1:33">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -907,7 +1574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" ht="16.8" spans="1:33">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -944,71 +1611,71 @@
       <c r="L4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="W4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="16" t="s">
+      <c r="Y4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="Z4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="AB4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="21" t="s">
+      <c r="AC4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AD4" s="20" t="s">
+      <c r="AD4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="21" t="s">
+      <c r="AE4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="20" t="s">
+      <c r="AF4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="21" t="s">
+      <c r="AG4" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1045,59 +1712,59 @@
       <c r="L5" s="10">
         <v>1002</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="15">
         <v>1</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="15">
         <v>6</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="20">
         <v>2001</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="20">
         <v>2002</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="21">
         <v>1</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="21">
         <v>5</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="21">
         <v>3001</v>
       </c>
-      <c r="Y5" s="19" t="s">
+      <c r="Y5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="Z5" s="21">
         <v>3002</v>
       </c>
-      <c r="AA5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="22"/>
+      <c r="AA5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="27"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33">
       <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
@@ -1130,98 +1797,122 @@
       <c r="L6" s="10">
         <v>1004</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="15">
         <v>1</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="15">
         <v>5</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="20">
         <v>2003</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="20">
         <v>2004</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="21">
         <v>1</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="21">
         <v>5</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="W6" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="21">
         <v>3003</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Y6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="Z6" s="21">
         <v>3004</v>
       </c>
-      <c r="AA6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="22"/>
+      <c r="AA6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="27"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+    <row r="7" spans="1:33">
+      <c r="A7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="9">
+        <v>99</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="22"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="20"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG7" s="27"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
@@ -1230,33 +1921,33 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="22"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="27"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
@@ -1265,33 +1956,33 @@
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="22"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="27"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
@@ -1300,33 +1991,33 @@
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="22"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="27"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
@@ -1335,33 +2026,33 @@
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="22"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="27"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
@@ -1370,33 +2061,33 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="22"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="27"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
@@ -1405,33 +2096,33 @@
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="22"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="27"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
@@ -1440,29 +2131,29 @@
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="22"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="27"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1475,29 +2166,29 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="22"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="27"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1510,31 +2201,31 @@
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="22"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="27"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataTable/事件表.xlsx
+++ b/DataTable/事件表.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
   <si>
     <t>ALL</t>
   </si>
@@ -126,15 +126,21 @@
     <t>Project/Assets/Resource/xxx.png</t>
   </si>
   <si>
-    <t>撞开大门</t>
+    <t>推开大门</t>
   </si>
   <si>
     <t>撞开了大门</t>
   </si>
   <si>
+    <t>0101</t>
+  </si>
+  <si>
     <t>扭伤了手</t>
   </si>
   <si>
+    <t>0102</t>
+  </si>
+  <si>
     <t>尝试开锁</t>
   </si>
   <si>
@@ -144,46 +150,127 @@
     <t>响动引来了怪物</t>
   </si>
   <si>
+    <t>0103</t>
+  </si>
+  <si>
     <t>观察四周</t>
   </si>
   <si>
     <t>发现了其他入口</t>
   </si>
   <si>
+    <t>0104</t>
+  </si>
+  <si>
     <t>什么也没有发现</t>
   </si>
   <si>
+    <t>0105</t>
+  </si>
+  <si>
     <t>SJ#0102</t>
   </si>
   <si>
     <t>矿坑</t>
   </si>
   <si>
+    <t>你进入了一座废弃的矿坑，你沿着蜿蜒狭窄的矿道一路深入地下。突然，大地开始不住地颤抖，伴随震耳欲聋的轰鸣。你看见背后有一块巨石正沿着来时的朝你飞快滚来。你一路向前狂奔，万幸，在体力快要透支之前，巨石被逐渐变窄的矿道卡住了，不再前进。但此时，你也已经走到了矿道的尽头，而背后的退路也被巨石堵住了</t>
+  </si>
+  <si>
     <t>推开巨石</t>
   </si>
   <si>
     <t>石头被推开了</t>
   </si>
   <si>
+    <t>0201</t>
+  </si>
+  <si>
     <t>巨石纹丝不动</t>
   </si>
   <si>
+    <t>0202</t>
+  </si>
+  <si>
     <t>从缝隙钻过</t>
   </si>
   <si>
     <t>通过了缝隙</t>
   </si>
   <si>
+    <t>0203</t>
+  </si>
+  <si>
     <t>擦伤了手臂</t>
   </si>
   <si>
+    <t>0204</t>
+  </si>
+  <si>
     <t>用杠杆原理</t>
   </si>
   <si>
     <t>撬开了巨石</t>
   </si>
   <si>
+    <t>0206</t>
+  </si>
+  <si>
     <t>杠杆断了</t>
+  </si>
+  <si>
+    <t>SJ#0103</t>
+  </si>
+  <si>
+    <t>袭击</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>你突然被一个浑身布满各种奇怪仪器，两眼通红，显得十分狂暴的怪物朝你飞扑过来</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>给他一拳</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>你一拳击晕了怪人</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>你一拳将怪物锤开，但显然他并没有这么容易就被打倒</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>躲开</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>你一个华丽的侧身躲开了怪物的攻击</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>你虽然侧身躲开了怪物致命的攻击，但还是被他锋利的爪子划伤了</t>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>SM#0901</t>
@@ -393,7 +480,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,12 +609,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -564,24 +645,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -589,12 +658,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,10 +908,10 @@
     <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -857,25 +920,37 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,31 +959,19 @@
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -916,88 +979,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1325,10 +1388,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG16"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1703,56 +1766,56 @@
       <c r="I5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="10">
-        <v>1001</v>
+      <c r="J5" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1002</v>
+        <v>31</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="M5" s="15">
         <v>1</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O5" s="15">
         <v>6</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="20">
-        <v>2001</v>
+        <v>34</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="20">
-        <v>2002</v>
+        <v>35</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="T5" s="21">
         <v>1</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="V5" s="21">
         <v>5</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" s="21">
-        <v>3001</v>
+        <v>38</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z5" s="21">
-        <v>3002</v>
+        <v>40</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="AA5" s="27">
         <v>0</v>
@@ -1766,78 +1829,80 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H6" s="10">
         <v>6</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="10">
-        <v>1003</v>
+        <v>46</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="10">
-        <v>1004</v>
+        <v>48</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="M6" s="15">
         <v>1</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O6" s="15">
         <v>5</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>2003</v>
+        <v>51</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="20">
-        <v>2004</v>
+        <v>53</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="T6" s="21">
         <v>1</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="V6" s="21">
         <v>5</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="X6" s="21">
-        <v>3003</v>
+        <v>56</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z6" s="21">
-        <v>3004</v>
+        <v>58</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="AA6" s="27">
         <v>0</v>
@@ -1851,96 +1916,136 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="9">
-        <v>99</v>
+        <v>60</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="I7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="P7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="R7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="U7" s="22"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="W7" s="22"/>
       <c r="X7" s="21"/>
-      <c r="Y7" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="Y7" s="22"/>
       <c r="Z7" s="21"/>
-      <c r="AA7" s="28"/>
+      <c r="AA7" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="AB7" s="28"/>
       <c r="AC7" s="27"/>
-      <c r="AD7" s="28" t="s">
-        <v>55</v>
-      </c>
+      <c r="AD7" s="28"/>
       <c r="AE7" s="27"/>
-      <c r="AF7" s="28" t="s">
-        <v>52</v>
-      </c>
+      <c r="AF7" s="28"/>
       <c r="AG7" s="27"/>
     </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="12"/>
+    <row r="8" ht="18" customHeight="1" spans="1:33">
+      <c r="A8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="9">
+        <v>99</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="L8" s="10"/>
       <c r="M8" s="15"/>
       <c r="N8" s="16"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="17"/>
+      <c r="P8" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="Q8" s="20"/>
-      <c r="R8" s="17"/>
+      <c r="R8" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="S8" s="20"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="21"/>
-      <c r="W8" s="22"/>
+      <c r="W8" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="X8" s="21"/>
-      <c r="Y8" s="22"/>
+      <c r="Y8" s="22" t="s">
+        <v>81</v>
+      </c>
       <c r="Z8" s="21"/>
       <c r="AA8" s="28"/>
       <c r="AB8" s="28"/>
       <c r="AC8" s="27"/>
-      <c r="AD8" s="28"/>
+      <c r="AD8" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="AE8" s="27"/>
-      <c r="AF8" s="28"/>
+      <c r="AF8" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="AG8" s="27"/>
     </row>
     <row r="9" spans="1:33">
@@ -2004,7 +2109,7 @@
       <c r="W10" s="22"/>
       <c r="X10" s="21"/>
       <c r="Y10" s="22"/>
-      <c r="Z10" s="21"/>
+      <c r="Z10" s="24"/>
       <c r="AA10" s="28"/>
       <c r="AB10" s="28"/>
       <c r="AC10" s="27"/>
@@ -2064,10 +2169,10 @@
       <c r="M12" s="15"/>
       <c r="N12" s="16"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="20"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="15"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
       <c r="V12" s="21"/>
@@ -2122,7 +2227,7 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
@@ -2138,12 +2243,12 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="16"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="22"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="23"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="28"/>
       <c r="AB14" s="28"/>
@@ -2188,41 +2293,6 @@
       <c r="AF15" s="28"/>
       <c r="AG15" s="27"/>
     </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="27"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
